--- a/WebContent/assets/MoviesSpreadsheet.xlsx
+++ b/WebContent/assets/MoviesSpreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Moana</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Kenneth Branagh</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -420,9 +426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -496,6 +504,17 @@
         <v>110</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
